--- a/CASUAL/LA TICC/DISEPEDA, MACARIA PALOMERO.xlsx
+++ b/CASUAL/LA TICC/DISEPEDA, MACARIA PALOMERO.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="113">
   <si>
     <t>PERIOD</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>UT(0-4-2)</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-1-0)</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1310,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A8:K92" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A8:K93" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1663,12 +1669,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K92"/>
+  <dimension ref="A2:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A62" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,7 +1835,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table134[EARNED])-SUM(Table134[Absence Undertime W/ Pay])</f>
-        <v>52.971000000000004</v>
+        <v>50.721000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2999,19 +3005,19 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="41">
-        <v>44652</v>
-      </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D66" s="40"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="40">
+        <v>0.125</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H66" s="40"/>
       <c r="I66" s="9"/>
@@ -3020,7 +3026,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -3040,7 +3046,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -3056,17 +3062,21 @@
       <c r="H68" s="40"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="48"/>
+      <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
-        <v>44743</v>
-      </c>
-      <c r="B69" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="40"/>
+      <c r="D69" s="40">
+        <v>0.5</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
@@ -3076,17 +3086,21 @@
       <c r="H69" s="40"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
+      <c r="K69" s="48"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
-        <v>44774</v>
-      </c>
-      <c r="B70" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="40"/>
+      <c r="D70" s="40">
+        <v>0.125</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -3100,13 +3114,17 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
-        <v>44805</v>
-      </c>
-      <c r="B71" s="20"/>
+        <v>44774</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="40"/>
+      <c r="D71" s="40">
+        <v>0.5</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -3120,13 +3138,17 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
-        <v>44835</v>
-      </c>
-      <c r="B72" s="20"/>
+        <v>44805</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="40"/>
+      <c r="D72" s="40">
+        <v>0.5</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -3136,20 +3158,20 @@
       <c r="H72" s="40"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="48"/>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
       <c r="D73" s="40">
-        <v>0.504</v>
+        <v>0.5</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
@@ -3160,20 +3182,20 @@
       <c r="H73" s="40"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="48"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
       <c r="D74" s="40">
-        <v>3</v>
+        <v>0.504</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
@@ -3187,19 +3209,23 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
+      <c r="A75" s="41">
+        <v>44896</v>
+      </c>
       <c r="B75" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="40">
-        <v>1.5249999999999999</v>
+        <v>3</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="40"/>
       <c r="I75" s="9"/>
@@ -3207,12 +3233,14 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B76" s="20"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="40"/>
+      <c r="D76" s="40">
+        <v>1.5249999999999999</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -3225,76 +3253,74 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="41">
-        <v>44957</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D77" s="40">
-        <v>3</v>
-      </c>
+      <c r="A77" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="40"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="40"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
+      <c r="A78" s="41">
+        <v>44957</v>
+      </c>
       <c r="B78" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="41">
-        <v>44985</v>
-      </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D79" s="40"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="40">
+        <v>2</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G79" s="13" t="str">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="48"/>
+      <c r="K79" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -3310,11 +3336,11 @@
       <c r="H80" s="40"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="48"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -3334,7 +3360,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -3354,7 +3380,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -3374,7 +3400,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -3394,7 +3420,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -3414,16 +3440,18 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="40"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="40"/>
       <c r="I86" s="9"/>
@@ -3432,7 +3460,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3450,7 +3478,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3467,7 +3495,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
+      <c r="A89" s="41">
+        <v>45260</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="40"/>
@@ -3515,20 +3545,36 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="44"/>
+      <c r="A92" s="41"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="40"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="43" t="str">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="44"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="40"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="15"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="20"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="42"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="43" t="str">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="44"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5355,14 +5401,12 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="46">
         <f>SUM(D3,E4,F4)</f>
-        <v>0.504</v>
+        <v>0.125</v>
       </c>
       <c r="J3" s="35"/>
       <c r="K3" s="36">
@@ -5377,11 +5421,11 @@
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="F4" s="1">
         <f>IF(F3=0,0,IF(ISBLANK(F3),"",VLOOKUP(F3,C7:D66,2)))</f>
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
